--- a/biology/Médecine/Gustav_Peter_Bucky/Gustav_Peter_Bucky.xlsx
+++ b/biology/Médecine/Gustav_Peter_Bucky/Gustav_Peter_Bucky.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gustav Peter Bucky est un médecin, physicien et écrivain scientifique germano-américain, né le 3 septembre 1880 en Allemagne et mort le 19 février 1963 à New York. On lui doit plusieurs apports significatifs à la radiographie naissante.
 </t>
@@ -511,14 +523,16 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gustav Peter Bucky naît le 3 septembre 1880 en Allemagne. Il étudie la médecine de 1901 à 1906 à Genève et à Leipzig[1].
-En 1933, il émigre aux États-Unis[1].
-Proche ami d'Albert Einstein, les deux ont mis au point un dispositif pour régler automatiquement la durée d'exposition des pellicules radiographiques[2].
-Ils partagent un brevet pour ce dispositif[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gustav Peter Bucky naît le 3 septembre 1880 en Allemagne. Il étudie la médecine de 1901 à 1906 à Genève et à Leipzig.
+En 1933, il émigre aux États-Unis.
+Proche ami d'Albert Einstein, les deux ont mis au point un dispositif pour régler automatiquement la durée d'exposition des pellicules radiographiques.
+Ils partagent un brevet pour ce dispositif.
 Le diagramme de Bucky et la grille de Bucky-Potter sont des dispositifs qui préviennent les rayons X diffractés de « polluer » les films à rayons X.
-Bucky meurt le à New York le 19 février 1963[1].
+Bucky meurt le à New York le 19 février 1963.
 </t>
         </is>
       </c>
@@ -547,7 +561,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(de) Gustav Bucky, Anleitung zur Diathermiebehandlung, Urban &amp; Schwarzenberg, Berlin et Vienne, 1921
 (de) Gustav Bucky, Die Röntgenstrahlen und ihre Anwendung, Verlag Teubner, Leipzig, 1918
